--- a/REVER_DailyTracker_20200722.xlsx
+++ b/REVER_DailyTracker_20200722.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1D2010-6DDF-4351-B737-C5434A28332C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC853E-B01C-4628-B22A-557EB29766B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="95">
   <si>
     <t>Task</t>
   </si>
@@ -350,6 +350,24 @@
   </si>
   <si>
     <t>3. Rerun process are success for the communication board, whereas yet to fine tuning is pending.</t>
+  </si>
+  <si>
+    <t>SOINA</t>
+  </si>
+  <si>
+    <t>Download Active report setup and used in Application</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Email Merge from Google spread sheet</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>BackEnd Vastu Master Module</t>
   </si>
 </sst>
 </file>
@@ -359,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +399,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -458,10 +496,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -500,9 +541,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{70C60D51-7A4D-41C2-9B97-7344F0497E9F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,22 +866,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -853,7 +902,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -863,8 +912,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -876,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -887,10 +936,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -904,9 +953,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -920,9 +969,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -936,8 +985,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -954,19 +1003,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -984,13 +1033,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1018,7 +1067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1034,12 +1083,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1047,7 +1096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1069,7 +1118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1080,12 +1129,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1096,7 +1145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1107,12 +1156,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1136,7 +1185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1144,12 +1193,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1157,7 +1206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1165,7 +1214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1173,7 +1222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1181,12 +1230,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1202,7 +1251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1226,12 +1275,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1296,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1304,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1271,12 +1320,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1292,7 +1341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1349,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1365,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1324,7 +1373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1332,12 +1381,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1353,12 +1402,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1366,22 +1415,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1397,7 +1446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +1454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1413,12 +1462,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1426,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1442,12 +1491,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
@@ -1467,18 +1516,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1510,7 +1559,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1519,46 +1568,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1575,22 +1624,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1613,64 +1662,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <v>44034</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44034</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24">
+        <v>44034</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1691,18 +1769,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1734,7 +1812,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1743,46 +1821,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1803,18 +1881,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1846,7 +1924,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1855,46 +1933,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1915,18 +1993,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1949,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1970,7 +2048,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1979,46 +2057,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2039,18 +2117,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2082,7 +2160,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2091,46 +2169,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2151,18 +2229,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2185,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2194,7 +2272,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2203,46 +2281,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2263,18 +2341,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2306,7 +2384,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2315,46 +2393,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2375,18 +2453,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2418,7 +2496,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2427,46 +2505,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200722.xlsx
+++ b/REVER_DailyTracker_20200722.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC853E-B01C-4628-B22A-557EB29766B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334B8EA2-456B-4C63-B23A-BC6A50360ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>BackEnd Vastu Master Module</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>service part return</t>
   </si>
 </sst>
 </file>
@@ -870,15 +876,15 @@
       <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -913,7 +919,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -939,7 +945,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -971,7 +977,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1230,12 +1236,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="30">
+    <row r="126" spans="4:7" ht="28.8">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="30">
+    <row r="129" spans="4:7" ht="28.8">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="45">
+    <row r="135" spans="4:7" ht="28.8">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="60">
+    <row r="139" spans="4:7" ht="43.2">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="75">
+    <row r="143" spans="4:7" ht="43.2">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="45">
+    <row r="150" spans="4:7" ht="43.2">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="30">
+    <row r="168" spans="4:7" ht="28.8">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="45">
+    <row r="181" spans="4:7" ht="28.8">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1516,15 +1522,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1624,19 +1630,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1696,7 +1702,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1769,15 +1775,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1877,19 +1883,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1918,9 +1924,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1993,15 +2005,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2117,15 +2129,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2229,15 +2241,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2341,15 +2353,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2453,15 +2465,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
